--- a/datas/Item.xlsx
+++ b/datas/Item.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +547,21 @@
           <t>sort_order</t>
         </is>
       </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>assets</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>obtain_desc</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>obtain_jump</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -674,60 +689,82 @@
           <t>排序</t>
         </is>
       </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>展示图资源</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>获取途径描述</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>获取途径跳转</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="B3" t="n">
-        <v>1001</v>
+        <v>10001</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>生命药水(小)</t>
+          <t>星光套装</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consumable</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+          <t>Costume</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CostumeSuit</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>icon_potion_hp_small</t>
+          <t>icon_costume_starlight</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>model_costume_starlight</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>恢复100点生命值</t>
+          <t>璀璨的星光套装</t>
         </is>
       </c>
       <c r="L3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>PickupBind</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -744,11 +781,6 @@
       <c r="T3" t="n">
         <v>0</v>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -757,49 +789,71 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>consumable|potion</t>
+          <t>costume|suit</t>
         </is>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>10000</v>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>asset_costume_starlight_display</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>活动获得</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>event_page</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
-        <v>1002</v>
+        <v>10002</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>生命药水(中)</t>
+          <t>可爱笑脸</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consumable</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
+          <t>Costume</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CostumeFace</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>icon_potion_hp_medium</t>
+          <t>icon_face_smile</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>model_face_smile</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>恢复300点生命值</t>
+          <t>展现可爱笑容的脸部装饰</t>
         </is>
       </c>
       <c r="L4" t="b">
@@ -809,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -820,7 +874,7 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -833,11 +887,6 @@
       <c r="T4" t="n">
         <v>0</v>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>1002</t>
-        </is>
-      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -846,49 +895,66 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>consumable|potion</t>
+          <t>costume|face</t>
         </is>
       </c>
       <c r="Y4" t="n">
-        <v>1001</v>
+        <v>10001</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>asset_face_smile_display</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>商城购买</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>shop_page</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>1003</v>
+        <v>20001</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>生命药水(大)</t>
+          <t>生命药水(小)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consumable</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ItemConsumable</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>Common</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>99</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>icon_potion_hp_large</t>
+          <t>icon_potion_hp_small</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>恢复800点生命值</t>
+          <t>恢复100点生命值</t>
         </is>
       </c>
       <c r="L5" t="b">
@@ -909,7 +975,7 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -922,42 +988,54 @@
       <c r="T5" t="n">
         <v>0</v>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>1003</t>
-        </is>
-      </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>consumable|potion</t>
+          <t>consumable|potion|hp</t>
         </is>
       </c>
       <c r="Y5" t="n">
-        <v>1002</v>
+        <v>20000</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>asset_potion_hp_display</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>杂货商购买、怪物掉落</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>shop_page</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n">
-        <v>1004</v>
+        <v>20002</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>魔法药水(小)</t>
+          <t>铁矿石</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consumable</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ItemMaterial</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -968,16 +1046,16 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>icon_potion_mp_small</t>
+          <t>icon_material_iron_ore</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>恢复50点魔法值</t>
+          <t>用于锻造的基础材料</t>
         </is>
       </c>
       <c r="L6" t="b">
@@ -987,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -1011,11 +1089,6 @@
       <c r="T6" t="n">
         <v>0</v>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>1004</t>
-        </is>
-      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1024,49 +1097,71 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>consumable|potion</t>
+          <t>material|ore</t>
         </is>
       </c>
       <c r="Y6" t="n">
-        <v>1003</v>
+        <v>20001</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>asset_iron_ore_display</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>采矿获得</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>mining_page</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n">
-        <v>1005</v>
+        <v>30001</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>魔法药水(中)</t>
+          <t>新手剑</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consumable</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EquipWeapon</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>Common</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>icon_potion_mp_medium</t>
+          <t>icon_sword_01</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>model_sword_01</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>恢复150点魔法值</t>
+          <t>新手武器，攻击力+5</t>
         </is>
       </c>
       <c r="L7" t="b">
@@ -1087,7 +1182,7 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1100,11 +1195,6 @@
       <c r="T7" t="n">
         <v>0</v>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>1005</t>
-        </is>
-      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1113,20 +1203,35 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>consumable|potion</t>
+          <t>equipment|weapon|sword</t>
         </is>
       </c>
       <c r="Y7" t="n">
-        <v>1004</v>
+        <v>30000</v>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>asset_sword_01_display</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>新手任务奖励</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>quest_page</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="n">
-        <v>2001</v>
+        <v>30002</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>新手剑</t>
+          <t>铁制头盔</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1134,33 +1239,35 @@
           <t>Equipment</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EquipHelmet</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>Uncommon</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>icon_sword_01</t>
+          <t>icon_helmet_iron</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>model_sword_01</t>
+          <t>model_helmet_iron</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>新手武器</t>
+          <t>防御力+10</t>
         </is>
       </c>
       <c r="L8" t="b">
@@ -1170,18 +1277,18 @@
         <v>1</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>PickupBind</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1202,614 +1309,26 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>equipment|weapon|sword</t>
+          <t>equipment|armor|helmet</t>
         </is>
       </c>
       <c r="Y8" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>铁剑</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Uncommon</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>icon_sword_02</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>model_sword_02</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>攻击力+15</t>
-        </is>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>PickupBind</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>10</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Permanent</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>equipment|weapon|sword</t>
-        </is>
-      </c>
-      <c r="Y9" t="n">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="n">
-        <v>2003</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>钢剑</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Rare</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>icon_sword_03</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>model_sword_03</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>攻击力+35</t>
-        </is>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>PickupBind</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>20</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Permanent</t>
-        </is>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>equipment|weapon|sword</t>
-        </is>
-      </c>
-      <c r="Y10" t="n">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="n">
-        <v>2004</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>魔法杖</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Uncommon</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>icon_staff_01</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>model_staff_01</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>魔法攻击+20</t>
-        </is>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>EquipBind</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>15</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Permanent</t>
-        </is>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>equipment|weapon|staff</t>
-        </is>
-      </c>
-      <c r="Y11" t="n">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="n">
-        <v>3001</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>金币</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Currency</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Common</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>999999</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>icon_gold</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>基础货币</t>
-        </is>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Permanent</t>
-        </is>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="Y12" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="n">
-        <v>3002</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>钻石</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Currency</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Rare</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>999999</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>icon_diamond</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>高级货币</t>
-        </is>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Permanent</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="Y13" t="n">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="n">
-        <v>4001</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>铁矿石</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Common</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>999</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>icon_ore_iron</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>锻造材料</t>
-        </is>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" t="b">
-        <v>1</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Permanent</t>
-        </is>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>material|ore</t>
-        </is>
-      </c>
-      <c r="Y14" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="n">
-        <v>4002</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>秘银矿石</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Rare</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>999</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>icon_ore_mithril</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>高级锻造材料</t>
-        </is>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" t="b">
-        <v>1</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>10</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Permanent</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>material|ore</t>
-        </is>
-      </c>
-      <c r="Y15" t="n">
-        <v>4001</v>
+        <v>30001</v>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>asset_helmet_iron_display</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>铁匠铺制作</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>forge_page</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/datas/Item.xlsx
+++ b/datas/Item.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,407 +571,484 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>道具ID</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>道具名称</t>
+          <t>string</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>道具类型</t>
+          <t>ItemType</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>子类型</t>
+          <t>ItemSubType</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>稀有度</t>
+          <t>Rarity</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>品质</t>
+          <t>int</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>最大堆叠数</t>
+          <t>int</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>图标</t>
+          <t>string</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>模型</t>
+          <t>string</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>描述</t>
+          <t>string</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>可交易</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>可出售</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>可掉落</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>可销毁</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>绑定类型</t>
+          <t>BindType</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>使用等级</t>
+          <t>int</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>职业限制</t>
+          <t>int</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>过期类型</t>
+          <t>ExpireType</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>过期时间</t>
+          <t>int</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>技能列表</t>
+          <t>(list#sep=|),int</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>冷却时间</t>
+          <t>int</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>冷却组</t>
+          <t>int</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>标签</t>
+          <t>(list#sep=|),string</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>排序</t>
+          <t>int</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>展示图资源</t>
+          <t>string</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>获取途径描述</t>
+          <t>string</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>获取途径跳转</t>
+          <t>string</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="n">
-        <v>10001</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>##</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>星光套装</t>
+          <t>c;s</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Costume</t>
+          <t>c;s</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CostumeSuit</t>
+          <t>c;s</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Epic</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>icon_costume_starlight</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>model_costume_starlight</t>
+          <t>c</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>璀璨的星光套装</t>
-        </is>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" t="b">
-        <v>1</v>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>PickupBind</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Permanent</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>costume|suit</t>
-        </is>
-      </c>
-      <c r="Y3" t="n">
-        <v>10000</v>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>asset_costume_starlight_display</t>
+          <t>c;s</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>活动获得</t>
+          <t>c;s</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>event_page</t>
+          <t>c;s</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="n">
-        <v>10002</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>##</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>道具ID</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>可爱笑脸</t>
+          <t>道具名称</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Costume</t>
+          <t>道具类型</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CostumeFace</t>
+          <t>子类型</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rare</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+          <t>稀有度</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>最大堆叠数量</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>icon_face_smile</t>
+          <t>图标资源路径</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>model_face_smile</t>
+          <t>3D模型资源路径</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>展现可爱笑容的脸部装饰</t>
-        </is>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" t="b">
-        <v>1</v>
+          <t>道具描述</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>是否可交易</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>是否可出售给NPC</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>是否可掉落</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>是否可销毁</t>
+        </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
+          <t>绑定类型</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>使用等级限制</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>职业限制</t>
+        </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Permanent</t>
-        </is>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
+          <t>过期类型</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>过期时间</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>使用技能ID列表</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>冷却时间（毫秒）</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>冷却组ID</t>
+        </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>costume|face</t>
-        </is>
-      </c>
-      <c r="Y4" t="n">
-        <v>10001</v>
+          <t>标签列表</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>排序权重</t>
+        </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>asset_face_smile_display</t>
+          <t>string</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>商城购买</t>
+          <t>string</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>shop_page</t>
+          <t>string</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>20001</v>
+        <v>10001</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>生命药水(小)</t>
+          <t>星光套装</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Item</t>
+          <t>Costume</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ItemConsumable</t>
+          <t>CostumeSuit</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>icon_potion_hp_small</t>
+          <t>icon_costume_starlight</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>model_costume_starlight</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>恢复100点生命值</t>
+          <t>璀璨的星光套装</t>
         </is>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>PickupBind</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -989,73 +1066,78 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>consumable|potion|hp</t>
+          <t>costume|suit</t>
         </is>
       </c>
       <c r="Y5" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>asset_potion_hp_display</t>
+          <t>asset_costume_starlight_display</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>杂货商购买、怪物掉落</t>
+          <t>活动获得</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>shop_page</t>
+          <t>event_page</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n">
-        <v>20002</v>
+        <v>10002</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>铁矿石</t>
+          <t>可爱笑脸</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Item</t>
+          <t>Costume</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ItemMaterial</t>
+          <t>CostumeFace</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>icon_material_iron_ore</t>
+          <t>icon_face_smile</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>model_face_smile</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>用于锻造的基础材料</t>
+          <t>展现可爱笑容的脸部装饰</t>
         </is>
       </c>
       <c r="L6" t="b">
@@ -1097,45 +1179,45 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>material|ore</t>
+          <t>costume|face</t>
         </is>
       </c>
       <c r="Y6" t="n">
-        <v>20001</v>
+        <v>10001</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>asset_iron_ore_display</t>
+          <t>asset_face_smile_display</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>采矿获得</t>
+          <t>商城购买</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>mining_page</t>
+          <t>shop_page</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n">
-        <v>30001</v>
+        <v>20001</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新手剑</t>
+          <t>生命药水(小)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Item</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EquipWeapon</t>
+          <t>ItemConsumable</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1147,21 +1229,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>icon_sword_01</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>model_sword_01</t>
+          <t>icon_potion_hp_small</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>新手武器，攻击力+5</t>
+          <t>恢复100点生命值</t>
         </is>
       </c>
       <c r="L7" t="b">
@@ -1196,136 +1273,343 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>equipment|weapon|sword</t>
+          <t>consumable|potion|hp</t>
         </is>
       </c>
       <c r="Y7" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>asset_sword_01_display</t>
+          <t>asset_potion_hp_display</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>新手任务奖励</t>
+          <t>杂货商购买、怪物掉落</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>quest_page</t>
+          <t>shop_page</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="n">
+        <v>20002</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>铁矿石</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ItemMaterial</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>999</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>icon_material_iron_ore</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>用于锻造的基础材料</t>
+        </is>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Permanent</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>material|ore</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
+        <v>20001</v>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>asset_iron_ore_display</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>采矿获得</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>mining_page</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>30001</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新手剑</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EquipWeapon</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>icon_sword_01</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>model_sword_01</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>新手武器，攻击力+5</t>
+        </is>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Permanent</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>equipment|weapon|sword</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>asset_sword_01_display</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>新手任务奖励</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>quest_page</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
         <v>30002</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>铁制头盔</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>EquipHelmet</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G10" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>icon_helmet_iron</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>model_helmet_iron</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>防御力+10</t>
         </is>
       </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>PickupBind</t>
         </is>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q10" t="n">
         <v>10</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>Permanent</t>
         </is>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>equipment|armor|helmet</t>
         </is>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y10" t="n">
         <v>30001</v>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>asset_helmet_iron_display</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>铁匠铺制作</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>forge_page</t>
         </is>

--- a/datas/Item.xlsx
+++ b/datas/Item.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1615,6 +1615,708 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>40001</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>小猫玩偶</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Doll</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>DollAnimal</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>icon/doll/cat_01</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>可爱的小猫玩偶</t>
+        </is>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>40002</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>小狗玩偶</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Doll</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>DollAnimal</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>icon/doll/dog_01</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>忠诚的小狗玩偶</t>
+        </is>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>40003</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兔子玩偶</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Doll</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DollAnimal</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>icon/doll/rabbit_01</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>温柔的兔子玩偶</t>
+        </is>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>40101</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>狐狸玩偶</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Doll</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DollAnimal</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>icon/doll/fox_01</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>灵动的狐狸玩偶</t>
+        </is>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>40102</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>熊猫玩偶</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Doll</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>DollAnimal</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>icon/doll/panda_01</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>憨态可掬的熊猫玩偶</t>
+        </is>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="n">
+        <v>40201</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>幼龙玩偶</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Doll</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DollAnimal</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>icon/doll/dragon_01</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>威风凛凛的幼龙玩偶</t>
+        </is>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>40301</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>凤凰玩偶</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Doll</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>DollAnimal</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Legendary</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>icon/doll/phoenix_01</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>浴火重生的凤凰玩偶</t>
+        </is>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>40004</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>骑士玩偶</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Doll</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>DollHuman</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>icon/doll/knight_01</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>勇敢的骑士玩偶</t>
+        </is>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="n">
+        <v>40005</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>法师玩偶</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Doll</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>DollHuman</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>icon/doll/mage_01</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>神秘的法师玩偶</t>
+        </is>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="n">
+        <v>40103</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>弓箭手玩偶</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Doll</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>DollHuman</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>icon/doll/archer_01</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>敏捷的弓箭手玩偶</t>
+        </is>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="n">
+        <v>40202</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圣骑士玩偶</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Doll</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>DollHuman</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>icon/doll/paladin_01</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>圣洁的圣骑士玩偶</t>
+        </is>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v>40006</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>向日葵玩偶</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Doll</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>DollPlant</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>icon/doll/sunflower_01</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>阳光的向日葵玩偶</t>
+        </is>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n">
+        <v>40104</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>玫瑰玩偶</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Doll</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>DollPlant</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>icon/doll/rose_01</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>优雅的玫瑰玩偶</t>
+        </is>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datas/Item.xlsx
+++ b/datas/Item.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>long</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1650,7 +1650,6 @@
           <t>icon/doll/cat_01</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>可爱的小猫玩偶</t>
@@ -1704,7 +1703,6 @@
           <t>icon/doll/dog_01</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>忠诚的小狗玩偶</t>
@@ -1758,7 +1756,6 @@
           <t>icon/doll/rabbit_01</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>温柔的兔子玩偶</t>
@@ -1812,7 +1809,6 @@
           <t>icon/doll/fox_01</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>灵动的狐狸玩偶</t>
@@ -1866,7 +1862,6 @@
           <t>icon/doll/panda_01</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>憨态可掬的熊猫玩偶</t>
@@ -1920,7 +1915,6 @@
           <t>icon/doll/dragon_01</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>威风凛凛的幼龙玩偶</t>
@@ -1974,7 +1968,6 @@
           <t>icon/doll/phoenix_01</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>浴火重生的凤凰玩偶</t>
@@ -2028,7 +2021,6 @@
           <t>icon/doll/knight_01</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>勇敢的骑士玩偶</t>
@@ -2082,7 +2074,6 @@
           <t>icon/doll/mage_01</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>神秘的法师玩偶</t>
@@ -2136,7 +2127,6 @@
           <t>icon/doll/archer_01</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>敏捷的弓箭手玩偶</t>
@@ -2190,7 +2180,6 @@
           <t>icon/doll/paladin_01</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>圣洁的圣骑士玩偶</t>
@@ -2244,7 +2233,6 @@
           <t>icon/doll/sunflower_01</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>阳光的向日葵玩偶</t>
@@ -2298,7 +2286,6 @@
           <t>icon/doll/rose_01</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>优雅的玫瑰玩偶</t>
